--- a/TP1 - Zhed/dados.xlsx
+++ b/TP1 - Zhed/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\IART\TP1 - Zhed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8443828-D623-46AB-9F77-D59CB71671D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A3FCD1-64CE-41CB-A19C-4C93F08BC574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75355DAC-A912-4236-8D88-18A042E2E226}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
   <si>
     <t>DFS</t>
   </si>
@@ -80,12 +80,18 @@
   <si>
     <t>Algoritmos - tempo(ms)</t>
   </si>
+  <si>
+    <t>Lvl  10 - nodes por algoritmo</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,8 +107,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +126,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -162,10 +180,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -173,8 +192,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -279,9 +300,6 @@
               <c:f>Sheet1!$J$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -687,9 +705,1227 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>331978</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20633</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3538110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20382594</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2A6-4109-8898-092C43C619E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4414414414414415E-3"/>
+                  <c:y val="-1.3703324534432246E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-E2A6-4109-8898-092C43C619E3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.6330612002032227E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-E2A6-4109-8898-092C43C619E3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$4:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5060</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E2A6-4109-8898-092C43C619E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uniform Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$4:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1343350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>248642</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E2A6-4109-8898-092C43C619E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greedy  (h5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$4:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>294476</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>287783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E2A6-4109-8898-092C43C619E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A* (h5) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4245014245014246E-3"/>
+                  <c:y val="-4.3596734402438671E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-E2A6-4109-8898-092C43C619E3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4245014245013201E-3"/>
+                  <c:y val="-4.1174693602303233E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-E2A6-4109-8898-092C43C619E3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>384793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E2A6-4109-8898-092C43C619E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="236836184"/>
+        <c:axId val="582354440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="236836184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Level</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582354440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="582354440"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Nodes Visited</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="236836184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1196,20 +2432,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>436791</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>127907</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1229,6 +2968,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>421819</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>326570</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E6B885-EBB2-422D-936C-813DC943EF27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1592,8 +3367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F727E9BE-FC58-498A-AAAF-119FC28DD7A4}">
   <dimension ref="B2:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA43" sqref="AA43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,6 +3390,9 @@
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -1630,6 +3408,9 @@
       <c r="G3" t="s">
         <v>2</v>
       </c>
+      <c r="K3" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="L3" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +3428,7 @@
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="B4" s="7">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1665,7 +3446,7 @@
       <c r="G4">
         <v>8</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="7">
         <v>4</v>
       </c>
       <c r="L4">
@@ -1685,7 +3466,7 @@
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="B5" s="7">
         <v>6</v>
       </c>
       <c r="C5">
@@ -1703,7 +3484,7 @@
       <c r="G5">
         <v>11</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="7">
         <v>6</v>
       </c>
       <c r="L5">
@@ -1723,7 +3504,7 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="B6" s="7">
         <v>8</v>
       </c>
       <c r="C6">
@@ -1741,7 +3522,7 @@
       <c r="G6">
         <v>783</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="7">
         <v>8</v>
       </c>
       <c r="L6">
@@ -1761,7 +3542,7 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="B7" s="7">
         <v>10</v>
       </c>
       <c r="C7">
@@ -1779,7 +3560,7 @@
       <c r="G7">
         <v>12</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="7">
         <v>10</v>
       </c>
       <c r="L7">
@@ -1799,7 +3580,7 @@
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="B8" s="7">
         <v>12</v>
       </c>
       <c r="C8">
@@ -1817,7 +3598,7 @@
       <c r="G8">
         <v>885</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="7">
         <v>12</v>
       </c>
       <c r="L8">
@@ -1837,7 +3618,7 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="B9" s="7">
         <v>17</v>
       </c>
       <c r="C9">
@@ -1855,7 +3636,7 @@
       <c r="G9">
         <v>23998</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="7">
         <v>17</v>
       </c>
       <c r="L9">
@@ -1875,7 +3656,7 @@
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="B10" s="7">
         <v>33</v>
       </c>
       <c r="C10" t="s">
@@ -1893,7 +3674,7 @@
       <c r="G10" t="s">
         <v>5</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="7">
         <v>33</v>
       </c>
       <c r="L10" t="s">
@@ -1998,6 +3779,9 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
@@ -2013,6 +3797,9 @@
       <c r="G22" t="s">
         <v>11</v>
       </c>
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="L22" t="s">
         <v>7</v>
       </c>
@@ -2030,7 +3817,7 @@
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="B23" s="7">
         <v>6</v>
       </c>
       <c r="C23">
@@ -2048,7 +3835,7 @@
       <c r="G23">
         <v>18</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="7">
         <v>6</v>
       </c>
       <c r="L23">
@@ -2068,7 +3855,7 @@
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="B24" s="7">
         <v>8</v>
       </c>
       <c r="C24">
@@ -2086,7 +3873,7 @@
       <c r="G24">
         <v>461</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="7">
         <v>8</v>
       </c>
       <c r="L24">
@@ -2106,7 +3893,7 @@
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="B25" s="7">
         <v>10</v>
       </c>
       <c r="C25">
@@ -2124,7 +3911,7 @@
       <c r="G25">
         <v>12</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="7">
         <v>10</v>
       </c>
       <c r="L25">
@@ -2144,7 +3931,7 @@
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="B26" s="7">
         <v>12</v>
       </c>
       <c r="C26">
@@ -2162,7 +3949,7 @@
       <c r="G26">
         <v>827</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="7">
         <v>12</v>
       </c>
       <c r="L26">
@@ -2186,6 +3973,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="33" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="34" spans="10:15" x14ac:dyDescent="0.25">
       <c r="K34" s="1" t="s">
         <v>0</v>
@@ -2204,9 +3996,6 @@
       </c>
     </row>
     <row r="35" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J35">
-        <v>10</v>
-      </c>
       <c r="K35">
         <v>20633</v>
       </c>
